--- a/data/37-intersection map LIN EV2 Solution.xlsx
+++ b/data/37-intersection map LIN EV2 Solution.xlsx
@@ -486,7 +486,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -495,10 +495,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="inlineStr"/>
@@ -512,16 +512,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>12.71283220666666</v>
+        <v>6.712832206667386</v>
       </c>
       <c r="D3" t="n">
-        <v>12.71283220666666</v>
+        <v>6.712832206667386</v>
       </c>
       <c r="E3" t="n">
-        <v>10.59087333333333</v>
+        <v>10.59087333333381</v>
       </c>
       <c r="F3" t="n">
-        <v>10.59087333333333</v>
+        <v>10.59087333333381</v>
       </c>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -535,16 +535,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.74182393333333</v>
+        <v>5.741823933334189</v>
       </c>
       <c r="D4" t="n">
-        <v>11.74182393333333</v>
+        <v>5.741823933334189</v>
       </c>
       <c r="E4" t="n">
-        <v>10.80948888888889</v>
+        <v>10.80948888888946</v>
       </c>
       <c r="F4" t="n">
-        <v>10.80948888888889</v>
+        <v>10.80948888888946</v>
       </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -558,16 +558,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>11.28928232666666</v>
+        <v>5.289282326667648</v>
       </c>
       <c r="D5" t="n">
-        <v>11.28928232666666</v>
+        <v>5.289282326667648</v>
       </c>
       <c r="E5" t="n">
-        <v>10.91143777777778</v>
+        <v>10.91143777777843</v>
       </c>
       <c r="F5" t="n">
-        <v>11.16143777777778</v>
+        <v>11.16143777777843</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -583,16 +583,16 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>10.29883456666666</v>
+        <v>4.298834566667715</v>
       </c>
       <c r="D6" t="n">
-        <v>10.29883456666666</v>
+        <v>4.298834566667715</v>
       </c>
       <c r="E6" t="n">
-        <v>11.22913344444444</v>
+        <v>11.22913344444521</v>
       </c>
       <c r="F6" t="n">
-        <v>11.22913344444444</v>
+        <v>11.22913344444521</v>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -606,16 +606,16 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>15.06295036</v>
+        <v>9.062950360000245</v>
       </c>
       <c r="D7" t="n">
-        <v>15.06295036</v>
+        <v>9.062950360000245</v>
       </c>
       <c r="E7" t="n">
-        <v>10.06169333333333</v>
+        <v>10.06169333333346</v>
       </c>
       <c r="F7" t="n">
-        <v>10.06169333333333</v>
+        <v>10.06169333333346</v>
       </c>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -629,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>12.89873381333333</v>
+        <v>6.898733813333831</v>
       </c>
       <c r="D8" t="n">
-        <v>12.89873381333333</v>
+        <v>6.898733813333831</v>
       </c>
       <c r="E8" t="n">
-        <v>10.54892444444444</v>
+        <v>10.54892444444478</v>
       </c>
       <c r="F8" t="n">
-        <v>10.54892444444444</v>
+        <v>10.54892444444478</v>
       </c>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -652,16 +652,16 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>14.31414208666667</v>
+        <v>8.314142086667005</v>
       </c>
       <c r="D9" t="n">
-        <v>14.31414208666667</v>
+        <v>8.314142086667005</v>
       </c>
       <c r="E9" t="n">
-        <v>10.23030888888889</v>
+        <v>10.23030888888911</v>
       </c>
       <c r="F9" t="n">
-        <v>10.23030888888889</v>
+        <v>10.23030888888911</v>
       </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -672,7 +672,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -681,10 +681,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -727,13 +727,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -748,16 +748,16 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>16.56056690666666</v>
+        <v>10.56056690666681</v>
       </c>
       <c r="D13" t="n">
-        <v>16.56056690666666</v>
+        <v>10.56056690666681</v>
       </c>
       <c r="E13" t="n">
-        <v>9.47446222222222</v>
+        <v>9.474462222222389</v>
       </c>
       <c r="F13" t="n">
-        <v>9.47446222222222</v>
+        <v>9.474462222222389</v>
       </c>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -771,16 +771,16 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>15.6636253</v>
+        <v>9.663625300000236</v>
       </c>
       <c r="D14" t="n">
-        <v>15.6636253</v>
+        <v>9.663625300000236</v>
       </c>
       <c r="E14" t="n">
-        <v>9.67641111111111</v>
+        <v>9.676411111111227</v>
       </c>
       <c r="F14" t="n">
-        <v>9.92641111111111</v>
+        <v>9.926411111111227</v>
       </c>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -796,22 +796,22 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>9.118511806666664</v>
+        <v>3.118511806667803</v>
       </c>
       <c r="D15" t="n">
-        <v>10.70251180666666</v>
+        <v>12.36783682666662</v>
       </c>
       <c r="E15" t="n">
-        <v>11.30932911111111</v>
+        <v>11.3093291111118</v>
       </c>
       <c r="F15" t="n">
-        <v>11.55932911111111</v>
+        <v>12.76913419633889</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
       </c>
       <c r="H15" t="n">
-        <v>0.25</v>
+        <v>1.459805085227086</v>
       </c>
       <c r="I15" t="inlineStr"/>
     </row>
@@ -820,7 +820,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>17.67970851333333</v>
+        <v>11.67970851333339</v>
       </c>
       <c r="D17" t="n">
-        <v>17.67970851333333</v>
+        <v>11.67970851333339</v>
       </c>
       <c r="E17" t="n">
-        <v>9.222513333333332</v>
+        <v>9.222513333333433</v>
       </c>
       <c r="F17" t="n">
-        <v>9.222513333333332</v>
+        <v>9.222513333333433</v>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -870,7 +870,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -902,10 +902,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -919,16 +919,16 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>19.09511678666667</v>
+        <v>13.09511678666674</v>
       </c>
       <c r="D20" t="n">
-        <v>19.09511678666667</v>
+        <v>13.09511678666674</v>
       </c>
       <c r="E20" t="n">
-        <v>8.903897777777777</v>
+        <v>8.903897777777885</v>
       </c>
       <c r="F20" t="n">
-        <v>8.903897777777777</v>
+        <v>8.903897777777885</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -942,16 +942,16 @@
         <v>1</v>
       </c>
       <c r="C21" t="n">
-        <v>20.36239172666667</v>
+        <v>14.36239172666673</v>
       </c>
       <c r="D21" t="n">
-        <v>20.36239172666667</v>
+        <v>14.36239172666673</v>
       </c>
       <c r="E21" t="n">
-        <v>8.368615555555555</v>
+        <v>8.368615555555664</v>
       </c>
       <c r="F21" t="n">
-        <v>8.618615555555555</v>
+        <v>8.618615555555664</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -964,7 +964,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G22" t="inlineStr"/>
       <c r="H22" t="inlineStr"/>
@@ -996,10 +996,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
@@ -1010,19 +1010,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>17.04507493999996</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>17.04507493999996</v>
       </c>
       <c r="E24" t="n">
-        <v>8</v>
+        <v>18.68510330744938</v>
       </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>18.68510330744938</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
@@ -1036,10 +1036,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D25" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
@@ -1056,19 +1056,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>14.66044332186666</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>14.66044332186666</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>17.63668273333333</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>17.63668273333333</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -1079,25 +1079,25 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>13.17695729706666</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>23.63760827333333</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>17.83992957777777</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>19.49091615862794</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.650986580850169</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
     </row>
@@ -1109,16 +1109,16 @@
         <v>1</v>
       </c>
       <c r="C28" t="n">
-        <v>5.724439226666663</v>
+        <v>18.23828321333329</v>
       </c>
       <c r="D28" t="n">
-        <v>5.724439226666663</v>
+        <v>18.23828321333329</v>
       </c>
       <c r="E28" t="n">
-        <v>12.28287144444444</v>
+        <v>18.16648775189383</v>
       </c>
       <c r="F28" t="n">
-        <v>12.53287144444444</v>
+        <v>18.41648775189383</v>
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -1131,7 +1131,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -1140,10 +1140,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -1154,19 +1154,19 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>7.139847499999997</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>7.139847499999997</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>11.96425588888889</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>11.96425588888889</v>
+        <v>0</v>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -1180,16 +1180,16 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>7.66645577333333</v>
+        <v>9.331780793333287</v>
       </c>
       <c r="D31" t="n">
-        <v>7.66645577333333</v>
+        <v>9.331780793333287</v>
       </c>
       <c r="E31" t="n">
-        <v>11.84564033333333</v>
+        <v>13.05544541856078</v>
       </c>
       <c r="F31" t="n">
-        <v>11.84564033333333</v>
+        <v>13.05544541856078</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -1203,16 +1203,16 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>8.193064046666663</v>
+        <v>9.858389066666621</v>
       </c>
       <c r="D32" t="n">
-        <v>8.193064046666663</v>
+        <v>9.858389066666621</v>
       </c>
       <c r="E32" t="n">
-        <v>11.72702477777778</v>
+        <v>12.93682986300548</v>
       </c>
       <c r="F32" t="n">
-        <v>11.72702477777778</v>
+        <v>12.93682986300548</v>
       </c>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -1223,7 +1223,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -1232,10 +1232,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -1269,7 +1269,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -1278,10 +1278,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -1295,16 +1295,16 @@
         <v>1</v>
       </c>
       <c r="C36" t="n">
-        <v>4.679364286666663</v>
+        <v>19.28335815333329</v>
       </c>
       <c r="D36" t="n">
-        <v>4.679364286666663</v>
+        <v>19.28335815333329</v>
       </c>
       <c r="E36" t="n">
-        <v>12.76815366666667</v>
+        <v>17.68120552967179</v>
       </c>
       <c r="F36" t="n">
-        <v>13.01815366666667</v>
+        <v>17.93120552967179</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -1317,19 +1317,19 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>8.064505853333287</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>8.064505853333287</v>
       </c>
       <c r="E37" t="n">
-        <v>8</v>
+        <v>13.340727640783</v>
       </c>
       <c r="F37" t="n">
-        <v>8</v>
+        <v>13.340727640783</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="C38" t="n">
-        <v>3.634289346666663</v>
+        <v>6.504433093333288</v>
       </c>
       <c r="D38" t="n">
-        <v>17.45828934666666</v>
+        <v>20.32843309333329</v>
       </c>
       <c r="E38" t="n">
-        <v>13.25343588888889</v>
+        <v>13.44592330744966</v>
       </c>
       <c r="F38" t="n">
-        <v>17.25343588888889</v>
+        <v>17.44592330744966</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1370,16 +1370,16 @@
         <v>1</v>
       </c>
       <c r="C39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D39" t="n">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E39" t="n">
-        <v>19.8595317141835</v>
+        <v>18.92038552967164</v>
       </c>
       <c r="F39" t="n">
-        <v>19.8595317141835</v>
+        <v>18.92038552967164</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -1396,7 +1396,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1439,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -1456,7 +1456,7 @@
         <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1561,10 +1561,10 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>11.28928232666666</v>
+        <v>5.289282326667676</v>
       </c>
       <c r="E9" t="n">
-        <v>11.16143777777778</v>
+        <v>11.16143777777855</v>
       </c>
     </row>
     <row r="10">
@@ -1592,7 +1592,7 @@
         <v>8</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1612,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>10.29883456666666</v>
+        <v>4.29883456666764</v>
       </c>
       <c r="E12" t="n">
-        <v>11.22913344444444</v>
+        <v>11.22913344444524</v>
       </c>
     </row>
     <row r="13">
@@ -1626,7 +1626,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1660,7 +1660,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1677,7 +1677,7 @@
         <v>8</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1694,7 +1694,7 @@
         <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1711,7 +1711,7 @@
         <v>9</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -1728,7 +1728,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -1762,7 +1762,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -1776,10 +1776,10 @@
         <v>10</v>
       </c>
       <c r="B22" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -1790,10 +1790,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
+        <v>10</v>
+      </c>
+      <c r="B23" t="n">
         <v>11</v>
-      </c>
-      <c r="B23" t="n">
-        <v>19</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -1824,19 +1824,19 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>16.56056690666666</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>9.47446222222222</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1844,24 +1844,24 @@
         <v>12</v>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>10.56056690666681</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>9.474462222222337</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B27" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -1875,10 +1875,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -1895,10 +1895,10 @@
         <v>14</v>
       </c>
       <c r="B29" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -1912,44 +1912,44 @@
         <v>14</v>
       </c>
       <c r="B30" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D30" t="n">
-        <v>10.70251180666666</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>11.55932911111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B31" t="n">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>12.36783682666662</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>12.76913419633881</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
+        <v>15</v>
+      </c>
+      <c r="B32" t="n">
         <v>16</v>
       </c>
-      <c r="B32" t="n">
-        <v>8</v>
-      </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1963,10 +1963,10 @@
         <v>16</v>
       </c>
       <c r="B33" t="n">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -1980,10 +1980,10 @@
         <v>16</v>
       </c>
       <c r="B34" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -1997,10 +1997,10 @@
         <v>16</v>
       </c>
       <c r="B35" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -2011,13 +2011,13 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B36" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -2031,7 +2031,7 @@
         <v>17</v>
       </c>
       <c r="B37" t="n">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -2045,13 +2045,13 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -2065,10 +2065,10 @@
         <v>18</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -2082,7 +2082,7 @@
         <v>18</v>
       </c>
       <c r="B40" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -2096,13 +2096,13 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" t="n">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -2116,10 +2116,10 @@
         <v>19</v>
       </c>
       <c r="B42" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -2133,10 +2133,10 @@
         <v>19</v>
       </c>
       <c r="B43" t="n">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -2147,13 +2147,13 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -2164,10 +2164,10 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
+        <v>20</v>
+      </c>
+      <c r="B45" t="n">
         <v>21</v>
-      </c>
-      <c r="B45" t="n">
-        <v>28</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
@@ -2181,13 +2181,13 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B46" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -2198,10 +2198,10 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B47" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C47" t="n">
         <v>0</v>
@@ -2218,7 +2218,7 @@
         <v>23</v>
       </c>
       <c r="B48" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C48" t="n">
         <v>0</v>
@@ -2232,19 +2232,19 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
+        <v>23</v>
+      </c>
+      <c r="B49" t="n">
         <v>24</v>
       </c>
-      <c r="B49" t="n">
-        <v>20</v>
-      </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="E49" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2252,16 +2252,16 @@
         <v>24</v>
       </c>
       <c r="B50" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51">
@@ -2269,10 +2269,10 @@
         <v>24</v>
       </c>
       <c r="B51" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -2283,16 +2283,16 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B52" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C52" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
@@ -2303,16 +2303,16 @@
         <v>25</v>
       </c>
       <c r="B53" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>14.66044332186666</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>17.63668273333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2320,7 +2320,7 @@
         <v>25</v>
       </c>
       <c r="B54" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C54" t="n">
         <v>0</v>
@@ -2337,7 +2337,7 @@
         <v>25</v>
       </c>
       <c r="B55" t="n">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C55" t="n">
         <v>0</v>
@@ -2354,7 +2354,7 @@
         <v>25</v>
       </c>
       <c r="B56" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C56" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B57" t="n">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="C57" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D57" t="n">
         <v>0</v>
@@ -2388,16 +2388,16 @@
         <v>27</v>
       </c>
       <c r="B58" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>18.23828321333329</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>18.41648775189383</v>
       </c>
     </row>
     <row r="59">
@@ -2405,10 +2405,10 @@
         <v>27</v>
       </c>
       <c r="B59" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C59" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D59" t="n">
         <v>0</v>
@@ -2422,24 +2422,24 @@
         <v>27</v>
       </c>
       <c r="B60" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D60" t="n">
-        <v>5.724439226666663</v>
+        <v>0</v>
       </c>
       <c r="E60" t="n">
-        <v>12.53287144444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B61" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C61" t="n">
         <v>0</v>
@@ -2456,16 +2456,16 @@
         <v>29</v>
       </c>
       <c r="B62" t="n">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C62" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D62" t="n">
-        <v>7.139847499999997</v>
+        <v>0</v>
       </c>
       <c r="E62" t="n">
-        <v>11.96425588888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2473,7 +2473,7 @@
         <v>29</v>
       </c>
       <c r="B63" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C63" t="n">
         <v>0</v>
@@ -2490,7 +2490,7 @@
         <v>29</v>
       </c>
       <c r="B64" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C64" t="n">
         <v>0</v>
@@ -2504,13 +2504,13 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B65" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C65" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D65" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>30</v>
       </c>
       <c r="B66" t="n">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D66" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>30</v>
       </c>
       <c r="B67" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C67" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D67" t="n">
         <v>0</v>
@@ -2555,30 +2555,30 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68" t="n">
         <v>36</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>9.331780793333287</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>13.05544541856078</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B69" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C69" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D69" t="n">
         <v>0</v>
@@ -2589,13 +2589,13 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B70" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -2609,10 +2609,10 @@
         <v>33</v>
       </c>
       <c r="B71" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C71" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D71" t="n">
         <v>0</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B72" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C72" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D72" t="n">
         <v>0</v>
@@ -2643,7 +2643,7 @@
         <v>34</v>
       </c>
       <c r="B73" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C73" t="n">
         <v>0</v>
@@ -2657,10 +2657,10 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
+        <v>34</v>
+      </c>
+      <c r="B74" t="n">
         <v>35</v>
-      </c>
-      <c r="B74" t="n">
-        <v>36</v>
       </c>
       <c r="C74" t="n">
         <v>0</v>
@@ -2674,13 +2674,13 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
+        <v>35</v>
+      </c>
+      <c r="B75" t="n">
         <v>36</v>
       </c>
-      <c r="B75" t="n">
-        <v>32</v>
-      </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -2694,10 +2694,10 @@
         <v>36</v>
       </c>
       <c r="B76" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C76" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -2708,19 +2708,19 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
+        <v>36</v>
+      </c>
+      <c r="B77" t="n">
         <v>37</v>
       </c>
-      <c r="B77" t="n">
-        <v>34</v>
-      </c>
       <c r="C77" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>8.064505853333287</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>13.340727640783</v>
       </c>
     </row>
     <row r="78">
@@ -2728,10 +2728,10 @@
         <v>37</v>
       </c>
       <c r="B78" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2742,19 +2742,19 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B79" t="n">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>20.32843309333329</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>17.44592330744966</v>
       </c>
     </row>
     <row r="80">
@@ -2762,7 +2762,7 @@
         <v>38</v>
       </c>
       <c r="B80" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C80" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>38</v>
       </c>
       <c r="B81" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C81" t="n">
         <v>0</v>
@@ -2793,10 +2793,10 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="B82" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C82" t="n">
         <v>0</v>
@@ -2810,27 +2810,27 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B83" t="n">
         <v>38</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>17.04507493999996</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>18.68510330744942</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B84" t="n">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C84" t="n">
         <v>0</v>
@@ -2844,13 +2844,13 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B85" t="n">
         <v>1</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2861,10 +2861,10 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C86" t="n">
         <v>0</v>
@@ -2878,13 +2878,13 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B87" t="n">
         <v>2</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -2895,78 +2895,78 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88" t="n">
         <v>2</v>
       </c>
       <c r="C88" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D88" t="n">
-        <v>12.89873381333333</v>
+        <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>10.54892444444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
+        <v>7</v>
+      </c>
+      <c r="B89" t="n">
         <v>2</v>
       </c>
-      <c r="B89" t="n">
-        <v>3</v>
-      </c>
       <c r="C89" t="n">
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>12.71283220666666</v>
+        <v>6.898733813333868</v>
       </c>
       <c r="E89" t="n">
-        <v>10.59087333333333</v>
+        <v>10.54892444444481</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
+        <v>2</v>
+      </c>
+      <c r="B90" t="n">
         <v>3</v>
       </c>
-      <c r="B90" t="n">
-        <v>4</v>
-      </c>
       <c r="C90" t="n">
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>11.74182393333333</v>
+        <v>6.712832206667522</v>
       </c>
       <c r="E90" t="n">
-        <v>10.80948888888889</v>
+        <v>10.5908733333339</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B91" t="n">
         <v>4</v>
       </c>
       <c r="C91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>5.741823933334236</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>10.80948888888954</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C92" t="n">
         <v>0</v>
@@ -2980,7 +2980,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B93" t="n">
         <v>5</v>
@@ -2997,13 +2997,13 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B94" t="n">
         <v>5</v>
       </c>
       <c r="C94" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -3014,13 +3014,13 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -3031,98 +3031,98 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B96" t="n">
         <v>6</v>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D96" t="n">
-        <v>15.6636253</v>
+        <v>0</v>
       </c>
       <c r="E96" t="n">
-        <v>9.92641111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B97" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>9.663625300000245</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>9.926411111111237</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B98" t="n">
         <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D98" t="n">
-        <v>14.31414208666667</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
-        <v>10.23030888888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B99" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C99" t="n">
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>15.06295036</v>
+        <v>8.314142086667164</v>
       </c>
       <c r="E99" t="n">
-        <v>10.06169333333333</v>
+        <v>10.23030888888913</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B100" t="n">
         <v>8</v>
       </c>
       <c r="C100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>9.062950360000245</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>10.06169333333341</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B101" t="n">
         <v>8</v>
       </c>
       <c r="C101" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -3136,10 +3136,10 @@
         <v>15</v>
       </c>
       <c r="B102" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C102" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -3150,13 +3150,13 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B103" t="n">
         <v>9</v>
       </c>
       <c r="C103" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -3167,13 +3167,13 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B104" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C104" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -3187,10 +3187,10 @@
         <v>19</v>
       </c>
       <c r="B105" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C105" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D105" t="n">
         <v>0</v>
@@ -3201,10 +3201,10 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C106" t="n">
         <v>0</v>
@@ -3218,13 +3218,13 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B107" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D107" t="n">
         <v>0</v>
@@ -3235,30 +3235,30 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B108" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C108" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D108" t="n">
-        <v>17.67970851333333</v>
+        <v>0</v>
       </c>
       <c r="E108" t="n">
-        <v>9.222513333333332</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -3269,30 +3269,30 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B110" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>11.67970851333347</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>9.222513333333501</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B111" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C111" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D111" t="n">
         <v>0</v>
@@ -3303,13 +3303,13 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B112" t="n">
         <v>14</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D112" t="n">
         <v>0</v>
@@ -3323,10 +3323,10 @@
         <v>16</v>
       </c>
       <c r="B113" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -3337,13 +3337,13 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B114" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C114" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D114" t="n">
         <v>0</v>
@@ -3354,13 +3354,13 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B115" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D115" t="n">
         <v>0</v>
@@ -3371,13 +3371,13 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B116" t="n">
         <v>16</v>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -3388,19 +3388,19 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B117" t="n">
         <v>16</v>
       </c>
       <c r="C117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D117" t="n">
-        <v>19.09511678666667</v>
+        <v>0</v>
       </c>
       <c r="E117" t="n">
-        <v>8.903897777777777</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
@@ -3408,7 +3408,7 @@
         <v>18</v>
       </c>
       <c r="B118" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C118" t="n">
         <v>0</v>
@@ -3422,27 +3422,27 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B119" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>13.09511678666673</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>8.903897777777884</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B120" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C120" t="n">
         <v>0</v>
@@ -3456,13 +3456,13 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B121" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -3473,13 +3473,13 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B122" t="n">
         <v>18</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D122" t="n">
         <v>0</v>
@@ -3490,30 +3490,30 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B123" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C123" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D123" t="n">
-        <v>20.36239172666667</v>
+        <v>0</v>
       </c>
       <c r="E123" t="n">
-        <v>8.618615555555555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B124" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C124" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D124" t="n">
         <v>0</v>
@@ -3524,19 +3524,19 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="B125" t="n">
         <v>19</v>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>14.36239172666673</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>8.618615555555664</v>
       </c>
     </row>
     <row r="126">
@@ -3544,10 +3544,10 @@
         <v>21</v>
       </c>
       <c r="B126" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -3561,7 +3561,7 @@
         <v>28</v>
       </c>
       <c r="B127" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C127" t="n">
         <v>0</v>
@@ -3575,13 +3575,13 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B128" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D128" t="n">
         <v>0</v>
@@ -3592,13 +3592,13 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
+        <v>28</v>
+      </c>
+      <c r="B129" t="n">
         <v>21</v>
       </c>
-      <c r="B129" t="n">
-        <v>23</v>
-      </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -3609,13 +3609,13 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B130" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3626,10 +3626,10 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B131" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C131" t="n">
         <v>0</v>
@@ -3643,24 +3643,24 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B132" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B133" t="n">
         <v>24</v>
@@ -3677,10 +3677,10 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
+        <v>22</v>
+      </c>
+      <c r="B134" t="n">
         <v>24</v>
-      </c>
-      <c r="B134" t="n">
-        <v>25</v>
       </c>
       <c r="C134" t="n">
         <v>0</v>
@@ -3697,7 +3697,7 @@
         <v>26</v>
       </c>
       <c r="B135" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C135" t="n">
         <v>0</v>
@@ -3711,24 +3711,24 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B136" t="n">
         <v>25</v>
       </c>
       <c r="C136" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B137" t="n">
         <v>25</v>
@@ -3745,30 +3745,30 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="B138" t="n">
         <v>25</v>
       </c>
       <c r="C138" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D138" t="n">
-        <v>17.45828934666666</v>
+        <v>0</v>
       </c>
       <c r="E138" t="n">
-        <v>17.25343588888889</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="B139" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C139" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D139" t="n">
         <v>0</v>
@@ -3779,13 +3779,13 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="B140" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D140" t="n">
         <v>0</v>
@@ -3796,13 +3796,13 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="B141" t="n">
         <v>27</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D141" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B142" t="n">
         <v>27</v>
@@ -3830,10 +3830,10 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B143" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C143" t="n">
         <v>0</v>
@@ -3847,41 +3847,41 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
+        <v>35</v>
+      </c>
+      <c r="B144" t="n">
         <v>27</v>
       </c>
-      <c r="B144" t="n">
-        <v>29</v>
-      </c>
       <c r="C144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>19.28335815333329</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>17.93120552967179</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="B145" t="n">
         <v>29</v>
       </c>
       <c r="C145" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D145" t="n">
-        <v>7.66645577333333</v>
+        <v>0</v>
       </c>
       <c r="E145" t="n">
-        <v>11.84564033333333</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B146" t="n">
         <v>29</v>
@@ -3898,13 +3898,13 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B147" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C147" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -3915,30 +3915,30 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B148" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D148" t="n">
-        <v>8.193064046666663</v>
+        <v>0</v>
       </c>
       <c r="E148" t="n">
-        <v>11.72702477777778</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B149" t="n">
         <v>30</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3949,30 +3949,30 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B150" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>9.858389066666621</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>12.93682986300542</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B151" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C151" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D151" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B152" t="n">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D152" t="n">
         <v>0</v>
@@ -4000,13 +4000,13 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B153" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C153" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D153" t="n">
         <v>0</v>
@@ -4017,13 +4017,13 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B154" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C154" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D154" t="n">
         <v>0</v>
@@ -4037,7 +4037,7 @@
         <v>35</v>
       </c>
       <c r="B155" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C155" t="n">
         <v>0</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="B156" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C156" t="n">
         <v>0</v>
@@ -4068,13 +4068,13 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B157" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D157" t="n">
         <v>0</v>
@@ -4085,13 +4085,13 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B158" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C158" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D158" t="n">
         <v>0</v>
@@ -4102,13 +4102,13 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B159" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D159" t="n">
         <v>0</v>
@@ -4119,30 +4119,30 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B160" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C160" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D160" t="n">
-        <v>4.679364286666663</v>
+        <v>0</v>
       </c>
       <c r="E160" t="n">
-        <v>13.01815366666667</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B161" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C161" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -4153,13 +4153,13 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="B162" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -4170,27 +4170,27 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B163" t="n">
         <v>38</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>-0</v>
       </c>
       <c r="D163" t="n">
-        <v>23.63760827333333</v>
+        <v>0</v>
       </c>
       <c r="E163" t="n">
-        <v>19.49091615862794</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
+        <v>22</v>
+      </c>
+      <c r="B164" t="n">
         <v>38</v>
-      </c>
-      <c r="B164" t="n">
-        <v>23</v>
       </c>
       <c r="C164" t="n">
         <v>0</v>
@@ -4204,18 +4204,52 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
+        <v>26</v>
+      </c>
+      <c r="B165" t="n">
         <v>38</v>
       </c>
-      <c r="B165" t="n">
+      <c r="C165" t="n">
+        <v>0</v>
+      </c>
+      <c r="D165" t="n">
+        <v>0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>38</v>
+      </c>
+      <c r="B166" t="n">
+        <v>23</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>38</v>
+      </c>
+      <c r="B167" t="n">
         <v>25</v>
       </c>
-      <c r="C165" t="n">
-        <v>0</v>
-      </c>
-      <c r="D165" t="n">
-        <v>0</v>
-      </c>
-      <c r="E165" t="n">
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
         <v>0</v>
       </c>
     </row>
